--- a/Release.xlsx
+++ b/Release.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academia5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academia5\Seguimiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FE3292-429D-458C-94C5-3E844371A0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38504D6A-45B6-45AE-BA14-EA3126B80028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="304">
   <si>
     <t>Alta alumnos</t>
   </si>
@@ -954,6 +954,9 @@
   </si>
   <si>
     <t>- Antes de realizar los cambios hay que elegir el profesor. Que devuelva una lista de los profesores disponibles para esos eventos.</t>
+  </si>
+  <si>
+    <t>holiwi</t>
   </si>
 </sst>
 </file>
@@ -4837,7 +4840,7 @@
   <dimension ref="A3:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G56" sqref="A56:G75"/>
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5421,6 +5424,9 @@
       </c>
       <c r="E54" s="67" t="s">
         <v>95</v>
+      </c>
+      <c r="F54" s="66" t="s">
+        <v>303</v>
       </c>
       <c r="J54" s="76">
         <v>44327</v>
